--- a/medicine/Enfance/Toni_Demuro/Toni_Demuro.xlsx
+++ b/medicine/Enfance/Toni_Demuro/Toni_Demuro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Toni Demuro (Sassari, 1974) est un illustrateur italien. 
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômé en peinture à l'Académie des beaux-arts de Sassari en 1997, Toni Demuro travaille depuis lors comme créatif dans le domaine des arts visuels et du design[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé en peinture à l'Académie des beaux-arts de Sassari en 1997, Toni Demuro travaille depuis lors comme créatif dans le domaine des arts visuels et du design. 
 En 1996, il remporte le prix Acquaviva nei Fumetti. 
 Il a collaboré avec Penguin Books, The Washington Post, le Boston Globe, Atlanta Magazine, Mondadori,  Rádio Londres Editora, Éditions Sarbacane, Editions Héloïse d'Ormesson, le Corriere della Sera, Vanity Fair, TukMusic. 
-En 2014, il a fait la couverture de l'album Jazzy Christmas du musicien Paolo Fresu[2].
+En 2014, il a fait la couverture de l'album Jazzy Christmas du musicien Paolo Fresu.
 </t>
         </is>
       </c>
@@ -547,18 +561,23 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums jeunesse publiés en français
-Illustrations
-La Cheneuille, texte de Yannick Jaulin, Editions D'orbestier, 2013[3]
-Célestin rêve, texte de Isabelle Wlodarczyk, Editions D'orbestier, 2014[4]
-L'oiseau qui avait avalé une étoile, texte de Laurie Cohen, La Palissade, 2015[5]
-Le Bidule, texte de Corinne Boutry, Editions D'Orestier, 2015[6]
-La Coccinelle - Haïkus pour les enfants, texte de Patrick Gillet, Editions Sarbacane, 2017[7]
-Des Ours dans la maison, texte de Olivier Dupin, Editions d'Orbestier, 2018[8]
-Quand je marche en forêt, texte de  Mickaël El Fathi, Editions Les Minots, 2016[9]
-Quand je marche dans le désert[10], avec Mickaël El Fathi et Arnaud Riou, Éditions les Minots, 2018[11]
-Chaumière, texte de Aurélia Coulaty, la Palissade, 2019[12]
-Savane - Haïkus pour les enfants, texte de Patrick Gillet, , Edition Un chat la nuit, 2019[13]</t>
+          <t>Albums jeunesse publiés en français</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Illustrations
+La Cheneuille, texte de Yannick Jaulin, Editions D'orbestier, 2013
+Célestin rêve, texte de Isabelle Wlodarczyk, Editions D'orbestier, 2014
+L'oiseau qui avait avalé une étoile, texte de Laurie Cohen, La Palissade, 2015
+Le Bidule, texte de Corinne Boutry, Editions D'Orestier, 2015
+La Coccinelle - Haïkus pour les enfants, texte de Patrick Gillet, Editions Sarbacane, 2017
+Des Ours dans la maison, texte de Olivier Dupin, Editions d'Orbestier, 2018
+Quand je marche en forêt, texte de  Mickaël El Fathi, Editions Les Minots, 2016
+Quand je marche dans le désert, avec Mickaël El Fathi et Arnaud Riou, Éditions les Minots, 2018
+Chaumière, texte de Aurélia Coulaty, la Palissade, 2019
+Savane - Haïkus pour les enfants, texte de Patrick Gillet, , Edition Un chat la nuit, 2019</t>
         </is>
       </c>
     </row>
@@ -586,10 +605,12 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1996 - Prix Acquaviva sui fumetti
-2016 - Prix Gayant Lecture[14]
+2016 - Prix Gayant Lecture
 2017 - Prix Michel Tournier jeunesse
 2017 - Prix Atout lire</t>
         </is>
